--- a/chia_viec.xlsx
+++ b/chia_viec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10a94f2600e6ff4c/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10a94f2600e6ff4c/Desktop/Cybersoft/caspone__dinner/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="8_{6E9F3E8E-A746-4D20-B474-59786FED0E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{602D19B5-FBF2-4B34-B508-8B52F791DA4E}"/>
@@ -284,6 +284,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,7 +590,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
